--- a/sql/Prop book.xlsx
+++ b/sql/Prop book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thao Dien\Broker-page - Copy\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA69A87-4490-429B-AC88-C9E218DB6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F381E-9E6A-4C09-8FA7-6AE2AE32FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="6210" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="82">
   <si>
     <t>Broker</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>3Q25</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>DCM</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4198,6 +4204,118 @@
         <v>191.304</v>
       </c>
     </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" t="s">
+        <v>79</v>
+      </c>
+      <c r="C257" t="s">
+        <v>80</v>
+      </c>
+      <c r="D257">
+        <v>388.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" t="s">
+        <v>79</v>
+      </c>
+      <c r="C258" t="s">
+        <v>81</v>
+      </c>
+      <c r="D258">
+        <v>106.95099999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" t="s">
+        <v>79</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259">
+        <v>374.26499999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" t="s">
+        <v>79</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260">
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" t="s">
+        <v>27</v>
+      </c>
+      <c r="D261">
+        <v>116.294</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>26</v>
+      </c>
+      <c r="B262" t="s">
+        <v>79</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262">
+        <v>3805.7429999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" t="s">
+        <v>79</v>
+      </c>
+      <c r="C263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" t="s">
+        <v>79</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="E264">
+        <v>275.238</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E250" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sql/Prop book.xlsx
+++ b/sql/Prop book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thao Dien\Broker-page - Copy\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F381E-9E6A-4C09-8FA7-6AE2AE32FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016C1A89-DFEB-42C5-9F90-DD0FB727767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="82">
   <si>
     <t>Broker</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B275" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4316,6 +4316,146 @@
         <v>275.238</v>
       </c>
     </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>70</v>
+      </c>
+      <c r="B265" t="s">
+        <v>79</v>
+      </c>
+      <c r="C265" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265">
+        <v>321.96100000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>70</v>
+      </c>
+      <c r="B266" t="s">
+        <v>79</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266">
+        <v>229.74100000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>70</v>
+      </c>
+      <c r="B267" t="s">
+        <v>79</v>
+      </c>
+      <c r="C267" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267">
+        <v>157.09299999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268" t="s">
+        <v>79</v>
+      </c>
+      <c r="C268" t="s">
+        <v>47</v>
+      </c>
+      <c r="D268">
+        <v>169.16200000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>70</v>
+      </c>
+      <c r="B269" t="s">
+        <v>79</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>364.79500000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" t="s">
+        <v>79</v>
+      </c>
+      <c r="C270" t="s">
+        <v>76</v>
+      </c>
+      <c r="D270">
+        <v>28.222999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" t="s">
+        <v>79</v>
+      </c>
+      <c r="C271" t="s">
+        <v>71</v>
+      </c>
+      <c r="E271">
+        <v>111.91</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>70</v>
+      </c>
+      <c r="B272" t="s">
+        <v>79</v>
+      </c>
+      <c r="C272" t="s">
+        <v>72</v>
+      </c>
+      <c r="E272">
+        <v>92.884</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" t="s">
+        <v>79</v>
+      </c>
+      <c r="C273" t="s">
+        <v>73</v>
+      </c>
+      <c r="E273">
+        <v>47.414999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>70</v>
+      </c>
+      <c r="B274" t="s">
+        <v>79</v>
+      </c>
+      <c r="C274" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274">
+        <v>156.172</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E250" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sql/Prop book.xlsx
+++ b/sql/Prop book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thao Dien\Broker-page - Copy\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016C1A89-DFEB-42C5-9F90-DD0FB727767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B4B4B-A6DC-43EF-8FC1-0C386E7F40AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B275" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
